--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product_backlog!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>delete project</t>
   </si>
@@ -282,13 +282,16 @@
   </si>
   <si>
     <t>tu dong xac dinh thoi gian dien ra su kien dua vao thoi gian ranh cua thanh vien</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +311,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -336,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -359,11 +369,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -375,9 +397,17 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +874,7 @@
     <col min="11" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -861,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -875,8 +905,15 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="12">
+        <f>COUNTIF(F2:F17,"x")/COUNTIF(E2:E17,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -890,8 +927,12 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -905,8 +946,12 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -920,8 +965,12 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -935,8 +984,12 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -950,8 +1003,12 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -965,8 +1022,12 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>14</v>
       </c>
@@ -980,8 +1041,12 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>15</v>
       </c>
@@ -995,8 +1060,12 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>17</v>
       </c>
@@ -1010,8 +1079,12 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>18</v>
       </c>
@@ -1025,8 +1098,12 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>19</v>
       </c>
@@ -1040,8 +1117,12 @@
       <c r="E13" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -1055,8 +1136,12 @@
       <c r="E14" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>23</v>
       </c>
@@ -1070,8 +1155,12 @@
       <c r="E15" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>24</v>
       </c>
@@ -1085,8 +1174,12 @@
       <c r="E16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>26</v>
       </c>
@@ -1100,8 +1193,12 @@
       <c r="E17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -1117,8 +1214,12 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9</v>
       </c>
@@ -1132,8 +1233,9 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -1147,8 +1249,9 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -1162,8 +1265,9 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -1177,8 +1281,9 @@
       <c r="E22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>27</v>
       </c>
@@ -1192,8 +1297,9 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -1207,8 +1313,9 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -1222,8 +1329,9 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -1237,8 +1345,9 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -1252,8 +1361,9 @@
       <c r="E27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -1269,8 +1379,9 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>12</v>
       </c>
@@ -1284,8 +1395,9 @@
       <c r="E29" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>13</v>
       </c>
@@ -1299,8 +1411,9 @@
       <c r="E30" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>16</v>
       </c>
@@ -1314,8 +1427,9 @@
       <c r="E31" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>21</v>
       </c>
@@ -1329,8 +1443,9 @@
       <c r="E32" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>22</v>
       </c>
@@ -1344,8 +1459,9 @@
       <c r="E33" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>28</v>
       </c>
@@ -1359,8 +1475,9 @@
       <c r="E34" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>29</v>
       </c>
@@ -1374,8 +1491,9 @@
       <c r="E35" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>30</v>
       </c>
@@ -1389,8 +1507,9 @@
       <c r="E36" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>31</v>
       </c>
@@ -1404,8 +1523,9 @@
       <c r="E37" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>32</v>
       </c>
@@ -1419,8 +1539,9 @@
       <c r="E38" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>33</v>
       </c>
@@ -1434,8 +1555,9 @@
       <c r="E39" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>34</v>
       </c>
@@ -1449,8 +1571,9 @@
       <c r="E40" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>35</v>
       </c>
@@ -1464,8 +1587,9 @@
       <c r="E41" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>36</v>
       </c>
@@ -1479,8 +1603,9 @@
       <c r="E42" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>37</v>
       </c>
@@ -1494,8 +1619,9 @@
       <c r="E43" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>38</v>
       </c>
@@ -1509,8 +1635,9 @@
       <c r="E44" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>39</v>
       </c>
@@ -1524,8 +1651,9 @@
       <c r="E45" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>40</v>
       </c>
@@ -1539,8 +1667,9 @@
       <c r="E46" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -1564,6 +1693,11 @@
       <sortCondition ref="E1:E57"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="G2:G17"/>
+    <mergeCell ref="G18:G28"/>
+    <mergeCell ref="G29:G46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620" activeTab="1"/>
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
-  <si>
-    <t>delete project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>create project</t>
   </si>
@@ -35,18 +32,6 @@
     <t>add member to project</t>
   </si>
   <si>
-    <t>accept member</t>
-  </si>
-  <si>
-    <t>get information about changeset</t>
-  </si>
-  <si>
-    <t>write on wiki</t>
-  </si>
-  <si>
-    <t>view project report</t>
-  </si>
-  <si>
     <t>use case</t>
   </si>
   <si>
@@ -68,21 +53,6 @@
     <t>remove member from project</t>
   </si>
   <si>
-    <t>link to artifact</t>
-  </si>
-  <si>
-    <t>get information about artifact</t>
-  </si>
-  <si>
-    <t>answer survey</t>
-  </si>
-  <si>
-    <t>view survey result</t>
-  </si>
-  <si>
-    <t>search in wiki</t>
-  </si>
-  <si>
     <t>mô tả chung</t>
   </si>
   <si>
@@ -200,36 +170,15 @@
     <t>Xin hẹn (qua email) phản biện đề tài KLTN</t>
   </si>
   <si>
-    <t>accept account</t>
-  </si>
-  <si>
     <t>view projects activities</t>
   </si>
   <si>
-    <t>ask to join project</t>
-  </si>
-  <si>
     <t>view workitem detail</t>
   </si>
   <si>
     <t>search workitem</t>
   </si>
   <si>
-    <t>create survey</t>
-  </si>
-  <si>
-    <t>update survey</t>
-  </si>
-  <si>
-    <t>delete survey</t>
-  </si>
-  <si>
-    <t>create wiki page</t>
-  </si>
-  <si>
-    <t>update wiki page</t>
-  </si>
-  <si>
     <t>create personal calendar</t>
   </si>
   <si>
@@ -266,9 +215,6 @@
     <t>update workitem</t>
   </si>
   <si>
-    <t>delete workitem</t>
-  </si>
-  <si>
     <t>duoc dung khi add member vao project</t>
   </si>
   <si>
@@ -285,6 +231,99 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>layout active account</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>login when active</t>
+  </si>
+  <si>
+    <t>cannot change email</t>
+  </si>
+  <si>
+    <t>check form email</t>
+  </si>
+  <si>
+    <t>error mail but still create account</t>
+  </si>
+  <si>
+    <t>cannot delete multility account</t>
+  </si>
+  <si>
+    <t>create proccess</t>
+  </si>
+  <si>
+    <t>edit process</t>
+  </si>
+  <si>
+    <t>isDelete field not hide</t>
+  </si>
+  <si>
+    <t>cannot edit</t>
+  </si>
+  <si>
+    <t>create class</t>
+  </si>
+  <si>
+    <t>edit class</t>
+  </si>
+  <si>
+    <t>isDeleted field not hide</t>
+  </si>
+  <si>
+    <t>show class</t>
+  </si>
+  <si>
+    <t>dupplicate Projects field</t>
+  </si>
+  <si>
+    <t>parent container --&gt; parent project</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>abort calendar</t>
+  </si>
+  <si>
+    <t>abort process</t>
+  </si>
+  <si>
+    <t>email is the same email of deleted account</t>
+  </si>
+  <si>
+    <t>failed when email not invalid</t>
+  </si>
+  <si>
+    <t>add account many times</t>
+  </si>
+  <si>
+    <t>add account inactive</t>
+  </si>
+  <si>
+    <t>no remove</t>
+  </si>
+  <si>
+    <t>cannot create workitem when not be member</t>
+  </si>
+  <si>
+    <t>attachtment</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>my project</t>
+  </si>
+  <si>
+    <t>not load data</t>
   </si>
 </sst>
 </file>
@@ -320,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,9 +415,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -385,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,13 +440,18 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,131 +768,131 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="B1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,837 +914,645 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="12">
-        <f>COUNTIF(F2:F17,"x")/COUNTIF(E2:E17,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>14</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>26</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="12"/>
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>46</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="13">
         <v>2</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13"/>
+      <c r="A27" s="10">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="13"/>
+      <c r="A28" s="10">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E29" s="10">
         <v>3</v>
       </c>
-      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>13</v>
-      </c>
       <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10">
-        <v>3</v>
-      </c>
-      <c r="G30" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>16</v>
-      </c>
       <c r="B31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3</v>
-      </c>
-      <c r="G31" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>21</v>
-      </c>
       <c r="B32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>22</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10">
-        <v>3</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>28</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="10">
-        <v>3</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>29</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="10">
-        <v>3</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>30</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="10">
-        <v>3</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>31</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>32</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="10">
-        <v>3</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>33</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="10">
-        <v>3</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>34</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="10">
-        <v>3</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>35</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="10">
-        <v>3</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>36</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="10">
-        <v>3</v>
-      </c>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>37</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="10">
-        <v>3</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>38</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="10">
-        <v>3</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>39</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="10">
-        <v>3</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>40</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>43</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E57">
+  <autoFilter ref="A1:E39">
     <sortState ref="A2:E57">
       <sortCondition ref="E1:E57"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="G2:G17"/>
-    <mergeCell ref="G18:G28"/>
-    <mergeCell ref="G29:G46"/>
+  <mergeCells count="1">
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>create project</t>
   </si>
@@ -230,39 +230,15 @@
     <t>tu dong xac dinh thoi gian dien ra su kien dua vao thoi gian ranh cua thanh vien</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>layout active account</t>
-  </si>
-  <si>
     <t>Issues</t>
   </si>
   <si>
-    <t>login when active</t>
-  </si>
-  <si>
-    <t>cannot change email</t>
-  </si>
-  <si>
-    <t>check form email</t>
-  </si>
-  <si>
-    <t>error mail but still create account</t>
-  </si>
-  <si>
-    <t>cannot delete multility account</t>
-  </si>
-  <si>
     <t>create proccess</t>
   </si>
   <si>
     <t>edit process</t>
   </si>
   <si>
-    <t>isDelete field not hide</t>
-  </si>
-  <si>
     <t>cannot edit</t>
   </si>
   <si>
@@ -272,42 +248,21 @@
     <t>edit class</t>
   </si>
   <si>
-    <t>isDeleted field not hide</t>
-  </si>
-  <si>
     <t>show class</t>
   </si>
   <si>
-    <t>dupplicate Projects field</t>
-  </si>
-  <si>
     <t>parent container --&gt; parent project</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>abort calendar</t>
   </si>
   <si>
     <t>abort process</t>
   </si>
   <si>
-    <t>email is the same email of deleted account</t>
-  </si>
-  <si>
     <t>failed when email not invalid</t>
   </si>
   <si>
-    <t>add account many times</t>
-  </si>
-  <si>
-    <t>add account inactive</t>
-  </si>
-  <si>
-    <t>no remove</t>
-  </si>
-  <si>
     <t>cannot create workitem when not be member</t>
   </si>
   <si>
@@ -317,20 +272,14 @@
     <t>history</t>
   </si>
   <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>my project</t>
-  </si>
-  <si>
-    <t>not load data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +307,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +353,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -423,12 +392,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -440,18 +418,36 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="B1:E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,8 +910,8 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -938,9 +934,11 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="F1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -956,21 +954,9 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -986,10 +972,7 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1005,14 +988,12 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="15"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>59</v>
@@ -1024,14 +1005,11 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>60</v>
@@ -1043,14 +1021,11 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -1062,14 +1037,12 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>0</v>
@@ -1082,13 +1055,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>88</v>
+      <c r="A9" s="10">
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>2</v>
@@ -1100,16 +1073,16 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>90</v>
+      <c r="F9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>1</v>
@@ -1121,14 +1094,11 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>3</v>
@@ -1140,19 +1110,15 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="F11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -1164,14 +1130,11 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>62</v>
@@ -1183,11 +1146,11 @@
       <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>63</v>
@@ -1200,18 +1163,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -1223,14 +1186,11 @@
       <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>51</v>
@@ -1243,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>5</v>
+      <c r="A17" s="10">
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -1263,14 +1223,12 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>9</v>
+      <c r="A18" s="10">
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>55</v>
@@ -1282,14 +1240,11 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>10</v>
+      <c r="A19" s="10">
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>54</v>
@@ -1301,14 +1256,11 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>11</v>
+      <c r="A20" s="10">
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>53</v>
@@ -1320,14 +1272,11 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>27</v>
+      <c r="A21" s="10">
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -1339,14 +1288,11 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>41</v>
+      <c r="A22" s="10">
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>57</v>
@@ -1358,11 +1304,11 @@
       <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>42</v>
+      <c r="A23" s="10">
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>56</v>
@@ -1374,11 +1320,11 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44</v>
+      <c r="A24" s="10">
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -1390,11 +1336,11 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45</v>
+      <c r="A25" s="10">
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>67</v>
@@ -1406,29 +1352,29 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>46</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>61</v>
@@ -1440,14 +1386,11 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>50</v>
@@ -1459,11 +1402,11 @@
       <c r="E28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>58</v>
@@ -1477,70 +1420,77 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
       <c r="B30" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
       <c r="B31" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
       <c r="B33" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
       <c r="B34" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="G34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="7"/>
@@ -1551,8 +1501,9 @@
       <sortCondition ref="E1:E57"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>create project</t>
   </si>
@@ -260,16 +260,10 @@
     <t>abort process</t>
   </si>
   <si>
-    <t>failed when email not invalid</t>
-  </si>
-  <si>
     <t>cannot create workitem when not be member</t>
   </si>
   <si>
     <t>attachtment</t>
-  </si>
-  <si>
-    <t>history</t>
   </si>
   <si>
     <t>my project</t>
@@ -360,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,15 +378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -406,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -432,22 +417,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,7 +885,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,11 +918,11 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -954,7 +938,7 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="18"/>
       <c r="J2" s="19"/>
     </row>
@@ -988,7 +972,7 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,11 +1094,9 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1163,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>24</v>
@@ -1202,9 +1184,6 @@
       <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,8 +1202,8 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1386,7 +1365,7 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1402,7 +1381,7 @@
       <c r="E28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1485,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>create project</t>
   </si>
@@ -252,12 +252,6 @@
   </si>
   <si>
     <t>parent container --&gt; parent project</t>
-  </si>
-  <si>
-    <t>abort calendar</t>
-  </si>
-  <si>
-    <t>abort process</t>
   </si>
   <si>
     <t>cannot create workitem when not be member</t>
@@ -316,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -410,10 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -422,6 +406,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,7 +416,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,7 +869,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,11 +902,11 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -938,9 +922,9 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -972,7 +956,7 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,12 +1041,8 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1094,9 +1074,9 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1145,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>24</v>
@@ -1202,8 +1182,8 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1333,7 +1313,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1349,7 +1329,7 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1365,7 +1345,7 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1381,7 +1361,7 @@
       <c r="E28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1433,7 +1413,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -1456,20 +1436,20 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="7"/>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>create project</t>
   </si>
@@ -239,9 +239,6 @@
     <t>edit process</t>
   </si>
   <si>
-    <t>cannot edit</t>
-  </si>
-  <si>
     <t>create class</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>show class</t>
   </si>
   <si>
-    <t>parent container --&gt; parent project</t>
-  </si>
-  <si>
     <t>cannot create workitem when not be member</t>
   </si>
   <si>
@@ -261,6 +255,18 @@
   </si>
   <si>
     <t>my project</t>
+  </si>
+  <si>
+    <t>parent container --&gt; parent</t>
+  </si>
+  <si>
+    <t>font unicode</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>incorrect link when back after edit</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,11 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +426,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +883,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,11 +916,11 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -922,9 +936,10 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -940,6 +955,7 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
+      <c r="F3" s="24"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -956,7 +972,7 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -973,6 +989,7 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
+      <c r="F5" s="24"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -989,6 +1006,7 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1005,7 +1023,7 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -1041,8 +1059,8 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1058,6 +1076,7 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,9 +1093,9 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1092,6 +1111,9 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,6 +1130,7 @@
       <c r="E13" s="10">
         <v>1</v>
       </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>24</v>
@@ -1148,6 +1171,7 @@
       <c r="E15" s="10">
         <v>1</v>
       </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1164,6 +1188,7 @@
       <c r="E16" s="10">
         <v>1</v>
       </c>
+      <c r="F16" s="24"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,8 +1207,8 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1199,6 +1224,7 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
+      <c r="F18" s="24"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,6 +1241,7 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,6 +1258,7 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
+      <c r="F20" s="24"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,6 +1275,7 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,6 +1292,7 @@
       <c r="E22" s="4">
         <v>2</v>
       </c>
+      <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,6 +1309,7 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
+      <c r="F23" s="24"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,6 +1326,7 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,9 +1343,10 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
+      <c r="F25" s="24"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1329,7 +1362,7 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1345,7 +1378,7 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1361,7 +1394,8 @@
       <c r="E28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1388,6 +1422,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -1399,57 +1434,63 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="7"/>
